--- a/src/main/java/com/herokuapp/qa/testdata/missionData.xlsx
+++ b/src/main/java/com/herokuapp/qa/testdata/missionData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14820" windowHeight="6945"/>
+    <workbookView windowWidth="14820" windowHeight="6945" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="create_mission" sheetId="1" r:id="rId1"/>
     <sheet name="EditPage" sheetId="2" r:id="rId2"/>
     <sheet name="Multuple User Logged" sheetId="3" r:id="rId3"/>
+    <sheet name="MultipleUser" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:G10"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Department</t>
   </si>
@@ -52,7 +53,7 @@
     <t>Test Deadline1</t>
   </si>
   <si>
-    <t>etett</t>
+    <t>Testing Department</t>
   </si>
   <si>
     <t>etetet</t>
@@ -74,6 +75,27 @@
   </si>
   <si>
     <t>Indore</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Testuser748596</t>
+  </si>
+  <si>
+    <t>Hamaza2019+</t>
+  </si>
+  <si>
+    <t>Testuser</t>
+  </si>
+  <si>
+    <t>ChhotuQa</t>
+  </si>
+  <si>
+    <t>Chhotu2019+</t>
   </si>
 </sst>
 </file>
@@ -81,10 +103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -110,7 +132,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,11 +153,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,84 +245,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,7 +261,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,37 +276,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,7 +408,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,133 +438,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,17 +470,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,11 +507,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,11 +529,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,148 +572,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,8 +1045,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1144,4 +1166,65 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>